--- a/NoGameNoLife.xlsx
+++ b/NoGameNoLife.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,182 @@
   </si>
   <si>
     <t>07 / 21 ~ 07 / 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人身险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Lrz </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩文件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>封装</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止用户上传已经上传的文件，
+判断 同一文件条件是： 
+相同名称 并且 相同压缩前大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,52 +448,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,593 +803,601 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="22" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="21" customHeight="1">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="4"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="6"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="6"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="2" t="s">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" ht="48.75" customHeight="1">
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="6"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="5"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="5"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="5"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="6"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="5"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="4"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="4"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="4"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="4"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="5"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B41" s="4"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="5"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="4"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="5"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="4"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="5"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="4"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="5"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="4"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="5"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="4"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="5"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="4"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="5"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="6"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="7"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="5"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="4"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="5"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="4"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="5"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="4"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="5"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="4"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="5"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="4"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="5"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="4"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="5"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="4"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="5"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="3"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="4"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="5"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="4"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="5"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="4"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="5"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="4"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="5"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="4"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="5"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="4"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="5"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="6"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="7"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="5"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="4"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="5"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="4"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="5"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B69" s="4"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="5"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B70" s="4"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="5"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B71" s="4"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="5"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B72" s="4"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="5"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B73" s="4"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="5"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="3"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B75" s="4"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="5"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="4"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="5"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="4"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="5"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B78" s="4"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="5"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B79" s="4"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="5"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B80" s="4"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="5"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B81" s="6"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="5"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B83" s="4"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="5"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B84" s="4"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="5"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B85" s="4"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="5"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B86" s="4"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="5"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B87" s="4"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="5"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B88" s="4"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="5"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B89" s="4"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="5"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B90" s="6"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
-      <c r="E90" s="7"/>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="2:5" ht="20.100000000000001" customHeight="1"/>
     <row r="92" spans="2:5" ht="20.100000000000001" customHeight="1"/>
@@ -1215,6 +1411,9 @@
     <row r="100" ht="20.100000000000001" customHeight="1"/>
     <row r="101" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D18:D19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/NoGameNoLife.xlsx
+++ b/NoGameNoLife.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1039,6 +1039,261 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">2.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赠</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保障页面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.2  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帮</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预约</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.3  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TA</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报告界面</t>
+    </r>
+  </si>
+  <si>
+    <t>TA的保障 接口 目前没有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故只进行了，虚拟数据测试
+（来自数据结构相似的接口 数据）
+没有进行 实际数据测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还封装了 判断是否是 微信端的 函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.4  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务预约</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详情页面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.5  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体检报告页面</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
     <t>我的客户详情页：
 目前 icon 说是后台接口提供，
 但是还没有时间 提供，
@@ -1046,259 +1301,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赠</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>TA</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保障页面</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.2  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>帮</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>TA</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预约</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页面</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.3  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上传</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TA</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报告界面</t>
-    </r>
-  </si>
-  <si>
-    <t>TA的保障 接口 目前没有数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故只进行了，虚拟数据测试
-（来自数据结构相似的接口 数据）
-没有进行 实际数据测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还封装了 判断是否是 微信端的 函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.4  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务预约</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详情页面</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.5  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>体检报告页面</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
+    <t xml:space="preserve">1. 赠TA保障 / 帮TA预约 
+/ 上传TA的报告 / 预约服务详情
+的路由参数 name 代表 客户名 + 手机号
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jQuery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1683,7 +1726,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1751,28 +1794,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1787,61 +1881,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2142,8 +2191,8 @@
   <dimension ref="B1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15:F21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2159,58 +2208,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="21" customHeight="1">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="105.75" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>46</v>
+      <c r="F2" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="51" customHeight="1" thickBot="1">
-      <c r="B3" s="25"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="47" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="2:6" ht="96.75" customHeight="1">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -2221,9 +2270,9 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="83.25" customHeight="1">
-      <c r="B5" s="25"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
@@ -2232,177 +2281,179 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="25"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B7" s="26"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>47</v>
+      <c r="F8" s="55" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="25"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="25"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="20"/>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="45" t="s">
-        <v>40</v>
+      <c r="E15" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="17"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="17"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="17"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="17"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B21" s="17"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="40"/>
+      <c r="D21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="E22" s="21"/>
       <c r="F22" s="11"/>
     </row>
@@ -2823,11 +2874,6 @@
     <row r="89" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="E15:E21"/>
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="F6:F7"/>
@@ -2839,6 +2885,11 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
